--- a/build/ensino/2022/08/segundo-semestre-de-2022/nota_forum_matc65_ava.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/nota_forum_matc65_ava.xlsx
@@ -502,52 +502,52 @@
         <v>220121411</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -555,37 +555,37 @@
         <v>219216006</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -608,52 +608,52 @@
         <v>216217366</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -661,13 +661,13 @@
         <v>220117274</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -714,7 +714,7 @@
         <v>219119343</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -732,34 +732,34 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -767,52 +767,52 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -873,52 +873,52 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -926,52 +926,52 @@
         <v>220117484</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -982,49 +982,49 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1032,52 +1032,52 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1088,49 +1088,49 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1138,52 +1138,52 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1244,52 +1244,52 @@
         <v>216117974</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1297,52 +1297,52 @@
         <v>220120069</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1350,52 +1350,52 @@
         <v>218118315</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1456,52 +1456,52 @@
         <v>219217429</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1509,52 +1509,52 @@
         <v>219218131</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1562,52 +1562,52 @@
         <v>219118768</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1615,52 +1615,52 @@
         <v>216120656</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1668,52 +1668,52 @@
         <v>220215670</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1721,52 +1721,52 @@
         <v>221120311</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1777,49 +1777,49 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1827,13 +1827,13 @@
         <v>219216014</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1845,34 +1845,34 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1880,10 +1880,10 @@
         <v>217118665</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1933,52 +1933,52 @@
         <v>219216568</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2036,52 +2036,52 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2142,52 +2142,52 @@
         <v>220117289</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2210,37 +2210,37 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2248,52 +2248,52 @@
         <v>219217442</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2354,52 +2354,52 @@
         <v>220120489</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2407,52 +2407,52 @@
         <v>219119774</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2460,34 +2460,34 @@
         <v>219216015</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2513,28 +2513,28 @@
         <v>220117284</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2566,52 +2566,52 @@
         <v>216219204</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2619,31 +2619,31 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2658,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2675,49 +2675,49 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2831,37 +2831,37 @@
         <v>220217141</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2937,16 +2937,16 @@
         <v>219217445</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>2.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2990,52 +2990,52 @@
         <v>221216781</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
